--- a/biology/Histoire de la zoologie et de la botanique/Carl_Gustav_Mannerheim/Carl_Gustav_Mannerheim.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Gustav_Mannerheim/Carl_Gustav_Mannerheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Carl Gustav Mannerheim est un entomologiste suédois de Finlande, sujet de l'Empire russe, né le 10 août 1797 au manoir de Louhisaari à Askainen et mort le 9 octobre 1854 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père Carl Erik était un élève de Linné.
 Il était gouverneur du grand-duché de Finlande, faisant partie de l'Empire russe. Il préside le Kaiserlich Hofgericht (cour d'appel impériale) de Vyborg. Il est décoré de l'ordre de Saint-Stanislas et est fait chevalier de l’ordre de Saint-Vladimir.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Dritter Nachtrag zur Kaefer-Fauna der nord-amerikanischen Laender des Russischen Reiches in Bull. Soc. Imp. Nat. Mosc., tome XXVI, N°3-4, pp. 95 sq (1853)</t>
         </is>
